--- a/biology/Médecine/Classe_ATC_A03/Classe_ATC_A03.xlsx
+++ b/biology/Médecine/Classe_ATC_A03/Classe_ATC_A03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC A03, dénommée « Médicaments utilisés en cas de problèmes fonctionnels gastro-intestinaux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA03[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC A03, dénommée « Médicaments utilisés en cas de problèmes fonctionnels gastro-intestinaux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA03. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A03AA Anticholinergiques synthétiques, esters d'amines tertiaires
-A03AA01 Oxyphencyclimine
+          <t>A03AA Anticholinergiques synthétiques, esters d'amines tertiaires</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A03AA01 Oxyphencyclimine
 A03AA03 Camylofine
 A03AA04 Mébévérine
 A03AA05 Trimébutine
@@ -522,9 +539,43 @@
 A03AA07 Dicyclovérine
 A03AA08 Dihexyvérine
 A03AA09 Difemerine
-A03AA30 Pipéridolate
-A03AB Anticholinergiques synthétiques, ammoniums quaternaires
-A03AB01 Benzilone
+A03AA30 Pipéridolate</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A03A Médicaments en cas de troubles fonctionnels gastro-intestinaux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A03AB Anticholinergiques synthétiques, ammoniums quaternaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A03AB01 Benzilone
 A03AB02 Glycopyrronium
 A03AB03 Oxyphenonium
 A03AB04 Penthiénate
@@ -547,20 +598,156 @@
 A03AB53 Oxyphénonium, associations
 QA03AB90 Benzétimide
 QA03AB92 Carbachol
-QA03AB93 Néostigmine
-A03AC Antispasmodiques de synthèse, amides d'amines tertiaires
-A03AC02 Diméthylaminopropionylphénothiazine
+QA03AB93 Néostigmine</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A03A Médicaments en cas de troubles fonctionnels gastro-intestinaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A03AC Antispasmodiques de synthèse, amides d'amines tertiaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A03AC02 Diméthylaminopropionylphénothiazine
 A03AC04 Nicofétamide
-A03AC05 Tiropramide
-A03AD Papavérine et dérivés
-A03AD01 Papavérine
+A03AC05 Tiropramide</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A03A Médicaments en cas de troubles fonctionnels gastro-intestinaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A03AD Papavérine et dérivés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A03AD01 Papavérine
 A03AD02 Drotavérine
-A03AD30 Moxavérine
-A03AE Substances agissant sur les récepteurs de la sérotonine
-A03AE01 Alosétron
-A03AE03 Cilansétron
-A03AX Autres médicaments en cas de troubles fonctionnels du côlon
-A03AX01 Fenpiprane
+A03AD30 Moxavérine</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A03A Médicaments en cas de troubles fonctionnels gastro-intestinaux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A03AE Substances agissant sur les récepteurs de la sérotonine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A03AE01 Alosétron
+A03AE03 Cilansétron</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A03A Médicaments en cas de troubles fonctionnels gastro-intestinaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A03AX Autres médicaments en cas de troubles fonctionnels du côlon</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A03AX01 Fenpiprane
 A03AX02 Diisopromine
 A03AX03 Chlorbenzoxamine
 A03AX04 Pinaverium
@@ -582,38 +769,77 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A03</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>A03B Belladone et dérivés, seuls</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A03BA Alcaloïdes de la belladone, amines tertiaires
-A03BA01 Atropine
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A03BA Alcaloïdes de la belladone, amines tertiaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A03BA01 Atropine
 A03BA03 Hyoscyamine
-A03BA04 Alcaloïdes totaux de la belladone
-A03BB Alcaloïdes de la belladone, semisynthétiques, ammoniums quaternaires
-A03BB01 Butylscopolamine
+A03BA04 Alcaloïdes totaux de la belladone</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A03B Belladone et dérivés, seuls</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A03BB Alcaloïdes de la belladone, semisynthétiques, ammoniums quaternaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A03BB01 Butylscopolamine
 A03BB02 Méthylatropine
 A03BB03 Méthylscopolamine
 A03BB04 Fentonium
@@ -621,34 +847,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A03</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>A03C Antispasmodiques associés à des psycholeptiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A03CA Anticholinergiques de synthèse associés à des psycholeptiques
-A03CA01 Isopropamide et psycholeptiques
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A03CA Anticholinergiques de synthèse associés à des psycholeptiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A03CA01 Isopropamide et psycholeptiques
 A03CA02 Clidinium et psycholeptiques
 A03CA03 Oxyphencyclimine et psycholeptiques
 A03CA04 Bromure d'otilonium et psycholeptiques
@@ -658,123 +889,309 @@
 A03CA08 Diphemanil et psycholeptiques
 A03CA09 Pipenzolate et psycholeptiques
 A03CA30 Emepronium et psycholeptiques
-A03CA34 Propanthéline et psycholeptiques
-A03CB Belladone et dérivés associés à des psycholeptiques
-A03CB01 Méthylscopolamine et psycholeptiques
+A03CA34 Propanthéline et psycholeptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A03C Antispasmodiques associés à des psycholeptiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A03CB Belladone et dérivés associés à des psycholeptiques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A03CB01 Méthylscopolamine et psycholeptiques
 A03CB02 Alcaloïdes totaux de la belladone et psycholeptiques
 A03CB03 Atropine et psycholeptiques
 A03CB04 Méthylhomatropine et psycholeptiques
-A03CB31 Hyoscyamine et psycholeptiques
-A03CC Autres antispasmodiques associés à des psycholeptiques
-Vide
+A03CB31 Hyoscyamine et psycholeptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A03C Antispasmodiques associés à des psycholeptiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A03CC Autres antispasmodiques associés à des psycholeptiques</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A03</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>A03D Antispasmodiques associés à des analgésiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A03DA Anticholinergiques de synthèse associés à des analgésiques
-A03DA01 Tropenzilone et analgésiques
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A03DA Anticholinergiques de synthèse associés à des analgésiques</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>A03DA01 Tropenzilone et analgésiques
 A03DA02 Pitofenone et analgésiques
 A03DA03 Bevonium et analgésiques
 A03DA04 Ciclonium et analgésiques
 A03DA05 Camylofin et analgésiques
 A03DA06 Trospium et analgésiques
-A03DA07 Iodure de tiémonium et analgésiques
-A03DB Belladone et dérivés associés à des analgésiques
-A03DB04 Butylscopolamine et analgésiques
-A03DC Autres antispasmodiques associés à des analgésiques
-Vide
+A03DA07 Iodure de tiémonium et analgésiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A03D Antispasmodiques associés à des analgésiques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A03DB Belladone et dérivés associés à des analgésiques</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A03DB04 Butylscopolamine et analgésiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>A03D Antispasmodiques associés à des analgésiques</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A03DC Autres antispasmodiques associés à des analgésiques</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A03</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>A03E Antispasmodiques et anticholinergiques associés à d'autres médicaments</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A03EA Antispasmodiques, psycholeptiques et analgésiques en association
-Vide
-A03ED Antispasmodiques associés à d'autres médicaments
-Vide
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A03EA Antispasmodiques, psycholeptiques et analgésiques en association</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A03</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A03E Antispasmodiques et anticholinergiques associés à d'autres médicaments</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>A03ED Antispasmodiques associés à d'autres médicaments</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>A03F Propulsifs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A03FA Propulsifs
-A03FA01 Métoclopramide
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>A03FA Propulsifs</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A03FA01 Métoclopramide
 A03FA02 Cisapride
 A03FA03 Dompéridone
 A03FA04 Bromopride
